--- a/tests/multialgorithm/fixtures/MetabolismAndGeneExpression.xlsx
+++ b/tests/multialgorithm/fixtures/MetabolismAndGeneExpression.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" activeTab="15"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
@@ -139,7 +139,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -924,12 +924,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -958,30 +958,30 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,7 +996,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,13 +1012,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,7 +1025,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1032,9 +1039,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,13 +1048,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,10 +1068,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1083,15 +1083,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1100,9 +1093,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1121,13 +1121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,13 +1139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,13 +1163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,13 +1175,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,7 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,13 +1223,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,7 +1247,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,55 +1289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,6 +1312,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1347,19 +1380,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1379,172 +1412,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1580,7 +1580,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1589,7 +1589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -35078,7 +35078,6 @@
       <c r="A4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
@@ -35096,7 +35095,6 @@
       <c r="A5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
@@ -35114,7 +35112,6 @@
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
@@ -35132,7 +35129,6 @@
       <c r="A7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
@@ -35351,7 +35347,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D7">
+  <autoFilter ref="A1:D19">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -35992,7 +35988,6 @@
     <row r="2" customHeight="1" spans="3:9">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="8"/>
       <c r="I2" s="8"/>
     </row>
   </sheetData>
@@ -36065,7 +36060,6 @@
     <row r="2" customHeight="1" spans="4:10">
       <c r="D2" s="2"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="8"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" customHeight="1" spans="4:5">
@@ -36091,7 +36085,7 @@
   <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -36179,7 +36173,6 @@
       <c r="D4" s="2">
         <v>1000</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>238</v>
       </c>
@@ -36191,7 +36184,6 @@
       <c r="D5" s="2">
         <v>28800</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
@@ -36203,7 +36195,6 @@
       <c r="D6" s="2">
         <v>180</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
@@ -36229,7 +36220,6 @@
       <c r="D8" s="2">
         <v>145179213874242</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>244</v>
       </c>
@@ -36247,7 +36237,6 @@
       <c r="D9" s="2">
         <v>150955440378909</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>244</v>
       </c>
@@ -36265,7 +36254,6 @@
       <c r="D10" s="3">
         <v>5.84842933597454e-5</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>249</v>
       </c>
@@ -36283,7 +36271,6 @@
       <c r="D11" s="2">
         <v>0.001</v>
       </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>133</v>
       </c>
@@ -36301,7 +36288,6 @@
       <c r="D12" s="2">
         <v>5.88319366216003e-5</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>249</v>
       </c>
@@ -36319,7 +36305,6 @@
       <c r="D13" s="2">
         <v>0.001</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>133</v>
       </c>
@@ -36337,7 +36322,6 @@
       <c r="D14" s="2">
         <v>3.32107813510873e-8</v>
       </c>
-      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
@@ -36355,7 +36339,6 @@
       <c r="D15" s="2">
         <v>0.00385081766977747</v>
       </c>
-      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>249</v>
       </c>
@@ -36373,7 +36356,6 @@
       <c r="D16" s="2">
         <v>8.30269533777183e-7</v>
       </c>
-      <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
         <v>133</v>
       </c>
@@ -36391,7 +36373,6 @@
       <c r="D17" s="2">
         <v>1.06967157493819e-5</v>
       </c>
-      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>249</v>
       </c>
@@ -36410,7 +36391,6 @@
       <c r="D18" s="2">
         <v>8.30269533777183e-7</v>
       </c>
-      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>133</v>
       </c>
@@ -36419,7 +36399,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F4">
+  <autoFilter ref="A1:F18">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -36491,12 +36471,12 @@
   <sheetPr/>
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -36831,7 +36811,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -36978,7 +36958,6 @@
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
@@ -37495,7 +37474,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I8">
+  <autoFilter ref="A1:I11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/tests/multialgorithm/fixtures/MetabolismAndGeneExpression.xlsx
+++ b/tests/multialgorithm/fixtures/MetabolismAndGeneExpression.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="17"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
     <sheet name="References" sheetId="16" r:id="rId20"/>
+    <sheet name="Authors" sheetId="22" r:id="rId21"/>
+    <sheet name="Changes" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="302">
   <si>
     <t>Id</t>
   </si>
@@ -89,15 +91,6 @@
   </si>
   <si>
     <t>wc_lang version</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
   </si>
   <si>
     <t>Time units</t>
@@ -886,6 +879,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -918,17 +914,65 @@
   <si>
     <t>Pages</t>
   </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -958,32 +1002,45 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1002,14 +1059,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1019,28 +1068,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,8 +1089,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1069,38 +1143,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1121,7 +1165,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,19 +1213,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,19 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,19 +1327,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,97 +1345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,6 +1356,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1333,6 +1392,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1349,16 +1419,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,181 +1456,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1580,7 +1624,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1589,7 +1633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2000,124 +2044,106 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
-    <col min="3" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
+      <c r="A9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="20"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
+      <c r="A10" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="20"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="20"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="20"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="20"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2144,65 +2170,65 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="2"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="2" customWidth="1"/>
-    <col min="5" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="1" customWidth="1"/>
+    <col min="5" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>24</v>
+      <c r="C1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2227,83 +2253,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
-    <col min="7" max="10" width="8.78333333333333" style="2"/>
-    <col min="11" max="1027" width="8.78333333333333" style="3"/>
-    <col min="1028" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="10" width="8.78333333333333" style="1"/>
+    <col min="11" max="1027" width="8.78333333333333" style="4"/>
+    <col min="1028" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B2"/>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:16384">
-      <c r="A2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="4"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -18678,28 +18704,28 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16384">
-      <c r="A3" s="2" t="s">
-        <v>160</v>
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B3"/>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="4"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -35075,275 +35101,275 @@
       <c r="XFD3"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="A4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>159</v>
+      <c r="F4" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>159</v>
+      <c r="F5" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>159</v>
+      <c r="F6" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="A7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>159</v>
+      <c r="F7" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>159</v>
+      <c r="F8" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="A9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>159</v>
+      <c r="F9" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>159</v>
+      <c r="F10" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="A11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>159</v>
+      <c r="F11" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="A12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>159</v>
+      <c r="F12" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="A13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>159</v>
+      <c r="F13" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="A14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>159</v>
+      <c r="F14" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>159</v>
+      <c r="F15" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="A16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>159</v>
+      <c r="F16" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="A17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>159</v>
+      <c r="F17" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="A18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>159</v>
+      <c r="F18" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="A19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>159</v>
+      <c r="F19" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -35371,71 +35397,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="2"/>
-    <col min="3" max="3" width="25.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2"/>
-    <col min="6" max="6" width="121.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.78333333333333" style="2"/>
-    <col min="8" max="10" width="9.25" style="2"/>
-    <col min="11" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="31.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1"/>
+    <col min="6" max="6" width="121.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.78333333333333" style="1"/>
+    <col min="8" max="10" width="9.25" style="1"/>
+    <col min="11" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
+      <c r="C1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>159</v>
+      <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -35443,20 +35469,20 @@
       <c r="K2"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>159</v>
+      <c r="G3" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -35464,20 +35490,20 @@
       <c r="K3"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>159</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -35485,20 +35511,20 @@
       <c r="K4"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>159</v>
+      <c r="A5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -35507,20 +35533,20 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>159</v>
+      <c r="A6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -35529,20 +35555,20 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>159</v>
+      <c r="C7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -35550,207 +35576,207 @@
       <c r="K7"/>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>159</v>
+      <c r="A8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>159</v>
+      <c r="A9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>159</v>
+      <c r="A10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>159</v>
+      <c r="A11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>159</v>
+      <c r="A12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>159</v>
+      <c r="A13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>159</v>
+      <c r="A14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>159</v>
+      <c r="A15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>159</v>
+      <c r="A16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>159</v>
+      <c r="A17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>159</v>
+      <c r="A18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>159</v>
+      <c r="A19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:6">
@@ -35877,48 +35903,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
+      <c r="C1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="4:4">
@@ -35949,45 +35975,45 @@
     <col min="2" max="2" width="8.78333333333333" style="8"/>
     <col min="3" max="3" width="10.5" style="8" customWidth="1"/>
     <col min="4" max="5" width="8.78333333333333" style="8"/>
-    <col min="6" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="6" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>24</v>
+      <c r="C1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="3:9">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="I2" s="8"/>
     </row>
   </sheetData>
@@ -36018,8 +36044,8 @@
     <col min="4" max="4" width="11" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="8" customWidth="1"/>
     <col min="6" max="7" width="8.78333333333333" style="8"/>
-    <col min="8" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="8" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -36030,44 +36056,44 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="4:10">
-      <c r="D2" s="2"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="10"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" customHeight="1" spans="4:5">
-      <c r="D3" s="2"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" customHeight="1" spans="4:5">
-      <c r="D4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" customHeight="1" spans="5:5">
@@ -36095,307 +36121,307 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.675" style="2"/>
-    <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="2"/>
-    <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.31666666666667" style="2"/>
-    <col min="8" max="8" width="9.425" style="2"/>
-    <col min="9" max="9" width="12.625" style="2"/>
-    <col min="10" max="10" width="12.625" style="3"/>
-    <col min="11" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.675" style="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.31666666666667" style="1"/>
+    <col min="8" max="8" width="9.425" style="1"/>
+    <col min="9" max="9" width="12.625" style="1"/>
+    <col min="10" max="10" width="12.625" style="4"/>
+    <col min="11" max="1026" width="8.78333333333333" style="4"/>
+    <col min="1027" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>24</v>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>236</v>
+      <c r="A2" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D2" s="7">
         <v>6.02214075862e+23</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>237</v>
+      <c r="F2" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1">
         <v>1100</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>238</v>
+      <c r="F3" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1">
         <v>1000</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>238</v>
+      <c r="F4" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="A5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="1">
         <v>28800</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="1">
         <v>180</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="1">
         <v>64800</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="1">
+        <v>145179213874242</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="2">
-        <v>145179213874242</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="1">
         <v>150955440378909</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="A10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="4">
         <v>5.84842933597454e-5</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>250</v>
+      <c r="F10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="A11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.001</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>133</v>
+      <c r="F11" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="A12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="1">
         <v>5.88319366216003e-5</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>255</v>
+      <c r="F12" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.001</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>133</v>
+      <c r="F13" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="1">
         <v>3.32107813510873e-8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>133</v>
+      <c r="F14" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="A15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.00385081766977747</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>261</v>
+      <c r="F15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="A16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="1">
         <v>8.30269533777183e-7</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>133</v>
+      <c r="F16" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="A17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="1">
         <v>1.06967157493819e-5</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>265</v>
+      <c r="F17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="A18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="1">
         <v>8.30269533777183e-7</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>133</v>
+      <c r="F18" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -36423,40 +36449,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="2"/>
-    <col min="3" max="3" width="13.3916666666667" style="2"/>
-    <col min="4" max="4" width="16.0666666666667" style="2"/>
-    <col min="5" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="13.3916666666667" style="1"/>
+    <col min="4" max="4" width="16.0666666666667" style="1"/>
+    <col min="5" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>24</v>
+      <c r="C1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -36471,7 +36497,7 @@
   <sheetPr/>
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -36481,7 +36507,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
@@ -36492,64 +36518,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -36573,9 +36599,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
@@ -36587,31 +36613,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -36669,44 +36695,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
+      <c r="A4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
+      <c r="A6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -36731,67 +36757,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.78333333333333" style="2"/>
-    <col min="18" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="17" width="8.78333333333333" style="1"/>
+    <col min="18" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1024">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AMJ1" s="3"/>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AMJ1" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
@@ -36799,6 +36825,145 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -36816,71 +36981,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
-    <col min="3" max="1018" width="8.78333333333333" style="2"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="1"/>
     <col min="1019" max="1019" width="8.78333333333333" style="19"/>
     <col min="1020" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
+      <c r="A7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
+      <c r="A9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -36904,87 +37069,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="2" customWidth="1"/>
-    <col min="4" max="7" width="8.78333333333333" style="2"/>
-    <col min="8" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.78333333333333" style="1"/>
+    <col min="8" max="1026" width="8.78333333333333" style="4"/>
+    <col min="1027" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1025">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="4"/>
+      <c r="AMK1" s="4"/>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AMI1" s="3"/>
-      <c r="AMJ1" s="3"/>
-      <c r="AMK1" s="3"/>
-    </row>
-    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -37009,14 +37174,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.78333333333333" style="16"/>
     <col min="10" max="10" width="9.375" style="16"/>
     <col min="11" max="11" width="8.78333333333333" style="16"/>
@@ -37027,137 +37192,137 @@
     <col min="1032" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1030">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>24</v>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="AMP1" s="16"/>
     </row>
     <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I2" s="7">
         <v>1e-16</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>61</v>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I3" s="7">
         <v>1e-12</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>65</v>
+      <c r="K3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -37185,292 +37350,292 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.78333333333333" style="2"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.78333333333333" style="2"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.78333333333333" style="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.78333333333333" style="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="1">
+        <v>89.094</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2">
-        <v>89.094</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>345.21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2">
-        <v>345.21</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-2</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="1">
+        <v>1726.05</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-10</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1726.05</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-10</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3452.1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>-20</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5178.15</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>-30</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>6904.2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>-40</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="1">
+        <v>445.47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="2">
-        <v>445.47</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="1">
         <v>890.94</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>102</v>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1">
         <v>1336.41</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>102</v>
+      <c r="G10" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="1">
         <v>1781.88</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>102</v>
+      <c r="G11" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -37498,209 +37663,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.5333333333333" style="2"/>
-    <col min="7" max="1026" width="9.10833333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="1" max="6" width="15.5333333333333" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>24</v>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>116</v>
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>116</v>
+      <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>116</v>
+      <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>116</v>
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>116</v>
+      <c r="A8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>116</v>
+      <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>116</v>
+      <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>116</v>
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>116</v>
+      <c r="A12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>116</v>
+      <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -37728,291 +37893,291 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="2"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.78333333333333" style="2"/>
-    <col min="5" max="5" width="10.25" style="2"/>
-    <col min="6" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.78333333333333" style="1"/>
+    <col min="5" max="5" width="10.25" style="1"/>
+    <col min="6" max="1026" width="8.78333333333333" style="1"/>
     <col min="1027" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
+      <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E2" s="14">
         <v>0.001</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="14">
         <v>0.01</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E4" s="14">
         <v>0.001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="14">
         <v>0.01</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="A6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1">
         <v>50</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="A11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1">
         <v>50</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1">
         <v>50</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1">
         <v>50</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -38037,8 +38202,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -38049,25 +38214,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/MetabolismAndGeneExpression.xlsx
+++ b/tests/multialgorithm/fixtures/MetabolismAndGeneExpression.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="303">
   <si>
     <t>Id</t>
   </si>
@@ -876,6 +876,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -942,6 +945,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -957,9 +963,6 @@
     <t>Intention type</t>
   </si>
   <si>
-    <t>Authors</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
 </sst>
@@ -968,12 +971,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1002,6 +1005,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1009,9 +1025,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,13 +1039,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,6 +1078,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1052,23 +1093,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,44 +1139,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1128,25 +1146,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1165,7 +1168,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,13 +1216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,7 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,19 +1258,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,31 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,13 +1312,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,49 +1342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,6 +1359,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1392,13 +1410,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,36 +1440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1456,139 +1448,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1624,7 +1627,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1633,7 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -36587,14 +36590,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36605,7 +36608,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -36638,6 +36641,9 @@
       </c>
       <c r="K1" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -36770,46 +36776,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
@@ -36855,31 +36861,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>14</v>
@@ -36897,14 +36903,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -36912,7 +36918,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -36923,43 +36929,46 @@
         <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>301</v>
+        <v>273</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
